--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winsontruong/Documents/GitHub/police/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E91FF04E-58F6-944E-9E1A-AF8F7666E2C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E6C87-C591-0442-91A1-22D21D379F6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="460" windowWidth="24560" windowHeight="16440" xr2:uid="{086A741B-C705-064C-8AFD-89718DDE3A33}"/>
+    <workbookView xWindow="0" yWindow="4600" windowWidth="28800" windowHeight="16440" xr2:uid="{086A741B-C705-064C-8AFD-89718DDE3A33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Just Race</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Logistic</t>
   </si>
   <si>
-    <t>SVM</t>
-  </si>
-  <si>
     <t>Accuracy</t>
   </si>
   <si>
@@ -59,14 +56,20 @@
     <t>Recall</t>
   </si>
   <si>
-    <t>Logistic + Regularizaion</t>
+    <t>Logistic + Lasso</t>
+  </si>
+  <si>
+    <t>SVM Linear Kernel</t>
+  </si>
+  <si>
+    <t>SVM Gaussian/RBF Kernel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -74,16 +77,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -91,15 +115,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,76 +516,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A81BFB3-1B8D-3343-9DAB-8C617EA2A587}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" ht="39" customHeight="1" thickBot="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10">
-      <c r="B2" t="s">
+    <row r="2" spans="1:10" ht="42" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.58024699999999996</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.56522099999999997</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.58024699999999996</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.59408899999999998</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.60049799999999998</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.59408899999999998</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.60830499999999998</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.61156999999999995</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.60830499999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
+      <c r="B4" s="8">
+        <v>0.59334100000000001</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.58404500000000004</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.59334100000000001</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.61616199999999999</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.63345799999999997</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.61616199999999999</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.61017600000000005</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.61117900000000003</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.61017600000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>3</v>
+    <row r="5" spans="1:10" ht="21">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.58772899999999995</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.57596899999999995</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.58772899999999995</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.62102500000000005</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.625309</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.62102500000000005</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.59633400000000003</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.62699099999999997</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.59633400000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="6" spans="1:10" ht="21">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.57052000000000003</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.57657199999999997</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.57052000000000003</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.62551400000000001</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.636216</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.62551400000000001</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.62439199999999995</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.61987300000000001</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.62392000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winsontruong/Documents/GitHub/police/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E6C87-C591-0442-91A1-22D21D379F6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24462EE3-EF06-6545-A219-C44759007460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4600" windowWidth="28800" windowHeight="16440" xr2:uid="{086A741B-C705-064C-8AFD-89718DDE3A33}"/>
   </bookViews>
@@ -519,7 +519,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winsontruong/Documents/GitHub/police/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24462EE3-EF06-6545-A219-C44759007460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E3F8E8-AE73-B441-BD6A-9974E15E8B46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4600" windowWidth="28800" windowHeight="16440" xr2:uid="{086A741B-C705-064C-8AFD-89718DDE3A33}"/>
+    <workbookView xWindow="-20" yWindow="480" windowWidth="28800" windowHeight="16440" xr2:uid="{086A741B-C705-064C-8AFD-89718DDE3A33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,19 +78,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Helvetica"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -186,22 +184,22 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A81BFB3-1B8D-3343-9DAB-8C617EA2A587}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -556,68 +554,68 @@
     </row>
     <row r="2" spans="1:10" ht="42" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:10" ht="31" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>0.58024699999999996</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>0.56522099999999997</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>0.58024699999999996</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>0.59408899999999998</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>0.60049799999999998</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>0.59408899999999998</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="7">
         <v>0.60830499999999998</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="7">
         <v>0.61156999999999995</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="7">
         <v>0.60830499999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:10" ht="33" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="8">
@@ -629,68 +627,68 @@
       <c r="D4" s="8">
         <v>0.59334100000000001</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>0.61616199999999999</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>0.63345799999999997</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <v>0.61616199999999999</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="7">
         <v>0.61017600000000005</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
         <v>0.61117900000000003</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="7">
         <v>0.61017600000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="21">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:10" ht="32" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>0.58772899999999995</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>0.57596899999999995</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>0.58772899999999995</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>0.62102500000000005</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>0.625309</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>0.62102500000000005</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <v>0.59633400000000003</v>
       </c>
       <c r="I5" s="8">
         <v>0.62699099999999997</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="7">
         <v>0.59633400000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:10" ht="31" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>0.57052000000000003</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>0.57657199999999997</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>0.57052000000000003</v>
       </c>
       <c r="E6" s="8">
@@ -705,7 +703,7 @@
       <c r="H6" s="8">
         <v>0.62439199999999995</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="7">
         <v>0.61987300000000001</v>
       </c>
       <c r="J6" s="8">

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winsontruong/Documents/GitHub/police/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E3F8E8-AE73-B441-BD6A-9974E15E8B46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0013A6A9-BB95-D24B-A90A-40C8891647A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="480" windowWidth="28800" windowHeight="16440" xr2:uid="{086A741B-C705-064C-8AFD-89718DDE3A33}"/>
+    <workbookView xWindow="40" yWindow="600" windowWidth="28800" windowHeight="16440" xr2:uid="{086A741B-C705-064C-8AFD-89718DDE3A33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Just Race</t>
   </si>
@@ -64,12 +64,33 @@
   <si>
     <t>SVM Gaussian/RBF Kernel</t>
   </si>
+  <si>
+    <t>SVM Gaussian Kernel</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
+  <si>
+    <t>FDR</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Logisitic LASSO</t>
+  </si>
+  <si>
+    <t>Logistic (Baseline)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,8 +111,29 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +143,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,9 +236,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -194,12 +254,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -215,6 +277,1321 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparison Metric Table for All Models and All Feature Sets</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25937546589492544"/>
+          <c:y val="1.8691588785046728E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logistic (Baseline)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$9:$G$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>FDR</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>FDR</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>FDR</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Race</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Appearance</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Context</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50353999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43477900000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54126200000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39950200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55932599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38843</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3718-0B49-BBD9-A2116D33AF51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logisitic LASSO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$9:$G$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>FDR</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>FDR</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>FDR</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Race</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Appearance</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Context</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.51841099999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41595500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56753399999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36654199999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.564697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38882100000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3718-0B49-BBD9-A2116D33AF51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVM Linear Kernel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$9:$G$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>FDR</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>FDR</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>FDR</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Race</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Appearance</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Context</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.514177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41458899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52653799999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37300899999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54392399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37458200000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3718-0B49-BBD9-A2116D33AF51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVM Gaussian Kernel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$9:$G$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>FDR</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>FDR</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>FDR</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Race</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Appearance</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Context</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.51324899999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41909200000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58591599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38012699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55519499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39785999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3718-0B49-BBD9-A2116D33AF51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1608748352"/>
+        <c:axId val="1608749984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1608748352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1608749984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1608749984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Metric</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Score</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1608748352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E411C2-D02E-4840-A01B-3200EF0A89E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,10 +1891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A81BFB3-1B8D-3343-9DAB-8C617EA2A587}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -529,193 +1906,331 @@
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="42" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="31" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>0.58024699999999996</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>0.56522099999999997</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>0.58024699999999996</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>0.59408899999999998</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>0.60049799999999998</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="4">
         <v>0.59408899999999998</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <v>0.60830499999999998</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="4">
         <v>0.61156999999999995</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="4">
         <v>0.60830499999999998</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>0.59334100000000001</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>0.58404500000000004</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>0.59334100000000001</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>0.61616199999999999</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>0.63345799999999997</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>0.61616199999999999</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <v>0.61017600000000005</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="4">
         <v>0.61117900000000003</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="4">
         <v>0.61017600000000005</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="32" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>0.58772899999999995</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>0.57596899999999995</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>0.58772899999999995</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>0.62102500000000005</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <v>0.625309</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4">
         <v>0.62102500000000005</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <v>0.59633400000000003</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="5">
         <v>0.62699099999999997</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="4">
         <v>0.59633400000000003</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="31" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>0.57052000000000003</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>0.57657199999999997</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>0.57052000000000003</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <v>0.62551400000000001</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="5">
         <v>0.636216</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="5">
         <v>0.62551400000000001</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="5">
         <v>0.62439199999999995</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="4">
         <v>0.61987300000000001</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="5">
         <v>0.62392000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0.50353999999999999</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.43477900000000003</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.54126200000000002</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.39950200000000002</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.55932599999999999</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.38843</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0.51841099999999996</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.41595500000000002</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.56753399999999998</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.36654199999999998</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0.564697</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.38882100000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0.514177</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.41458899999999999</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.52653799999999995</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.37300899999999998</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.54392399999999996</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.37458200000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.51324899999999996</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.41909200000000002</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.58591599999999999</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.38012699999999999</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.55519499999999999</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.39785999999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F9:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winsontruong/Documents/GitHub/police/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0013A6A9-BB95-D24B-A90A-40C8891647A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5C3C94-3B53-7A4F-92A7-DFB0C59EE879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="600" windowWidth="28800" windowHeight="16440" xr2:uid="{086A741B-C705-064C-8AFD-89718DDE3A33}"/>
+    <workbookView xWindow="980" yWindow="600" windowWidth="28800" windowHeight="16440" xr2:uid="{086A741B-C705-064C-8AFD-89718DDE3A33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -245,6 +245,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -257,11 +262,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,6 +483,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>Sheet1!$B$9:$G$11</c:f>
@@ -1558,15 +1616,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1893,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A81BFB3-1B8D-3343-9DAB-8C617EA2A587}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1913,21 +1971,21 @@
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="42" customHeight="1">
       <c r="A2" s="1"/>
@@ -2088,136 +2146,136 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="9">
         <v>0.50353999999999999</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="9">
         <v>0.43477900000000003</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="9">
         <v>0.54126200000000002</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="9">
         <v>0.39950200000000002</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="9">
         <v>0.55932599999999999</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="9">
         <v>0.38843</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="10">
         <v>0.51841099999999996</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="9">
         <v>0.41595500000000002</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="9">
         <v>0.56753399999999998</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="7">
         <v>0.36654199999999998</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="10">
         <v>0.564697</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="9">
         <v>0.38882100000000003</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="9">
         <v>0.514177</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="7">
         <v>0.41458899999999999</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="9">
         <v>0.52653799999999995</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="9">
         <v>0.37300899999999998</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="9">
         <v>0.54392399999999996</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="7">
         <v>0.37458200000000003</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="9">
         <v>0.51324899999999996</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="9">
         <v>0.41909200000000002</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="10">
         <v>0.58591599999999999</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="9">
         <v>0.38012699999999999</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="9">
         <v>0.55519499999999999</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="9">
         <v>0.39785999999999999</v>
       </c>
     </row>
